--- a/models/RandomForestClassifier_feature_importances.xlsx
+++ b/models/RandomForestClassifier_feature_importances.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B166"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,21 +448,21 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_9_value_AA</t>
+          <t>CATEGORICAL_9_value_BB</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1381835412648584</v>
+        <v>0.1317516219742179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_9_value_BB</t>
+          <t>CATEGORICAL_9_value_AA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1331131942706497</v>
+        <v>0.1101731998026709</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1009561394062342</v>
+        <v>0.08472987084539765</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08074505683322201</v>
+        <v>0.07818887215760259</v>
       </c>
     </row>
     <row r="6">
@@ -492,37 +492,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05316316653465893</v>
+        <v>0.04529441645774383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_41_std_dev_last_30_days</t>
+          <t>NUMERICAL_41</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03632108401877521</v>
+        <v>0.03470204938909639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_41</t>
+          <t>NUMERICAL_41_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03069242936151465</v>
+        <v>0.03276833748269371</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_40</t>
+          <t>NUMERICAL_1_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02537240279594493</v>
+        <v>0.02796496612404</v>
       </c>
     </row>
     <row r="10">
@@ -532,17 +532,17 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02527208780401229</v>
+        <v>0.02791725771138558</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_1_std_dev_last_30_days</t>
+          <t>NUMERICAL_40</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02519299349068283</v>
+        <v>0.02540193788053239</v>
       </c>
     </row>
     <row r="12">
@@ -552,87 +552,87 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02361769351859384</v>
+        <v>0.02421862192990477</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ID_APPLICATION</t>
+          <t>NUMERICAL_30</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01883279532424158</v>
+        <v>0.01739275159729689</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_6_value_A</t>
+          <t>NUMERICAL_30_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01754401492597411</v>
+        <v>0.01729704640595119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_30_std_dev_last_30_days</t>
+          <t>CATEGORICAL_7_value_B</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01662294463512869</v>
+        <v>0.01588560243544395</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_30</t>
+          <t>CATEGORICAL_6_value_A</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01554182822082634</v>
+        <v>0.01413059640047393</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_7_value_B</t>
+          <t>CATEGORICAL_1_value_OMFDE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01447199394234853</v>
+        <v>0.0114518002378258</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_2_value_AA</t>
+          <t>CATEGORICAL_6_value_C</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01333637544000545</v>
+        <v>0.01128327450999343</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_5_value_TR</t>
+          <t>CATEGORICAL_3_value_AS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01170957810593073</v>
+        <v>0.01083695031167859</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_6_value_C</t>
+          <t>CATEGORICAL_2_value_AA</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01162696796007491</v>
+        <v>0.01005021837040881</v>
       </c>
     </row>
     <row r="21">
@@ -642,77 +642,77 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01024246000126928</v>
+        <v>0.009750689324607058</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_1_value_OMFDE</t>
+          <t>CATEGORICAL_5_value_TR</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.009649385925423661</v>
+        <v>0.008848826411496693</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_3_value_AS</t>
+          <t>MONTH_APPLICATION_value_4</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.009292819972730734</v>
+        <v>0.008783694482598563</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>MONTH_APPLICATION_value_4</t>
+          <t>CATEGORICAL_1_value_FCOHQ</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.007043003427798295</v>
+        <v>0.005228130496170188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_1_value_FCOHQ</t>
+          <t>CATEGORICAL_8_value_BB</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00582112185853325</v>
+        <v>0.00508813365362457</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_8_value_AA</t>
+          <t>NUMERICAL_32_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.004486444809381688</v>
+        <v>0.004159243887595877</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_8_value_BB</t>
+          <t>NUMERICAL_32</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.004344284003364215</v>
+        <v>0.004151377039648001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_3_value_unkown</t>
+          <t>CATEGORICAL_8_value_AA</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.003646811003727779</v>
+        <v>0.004120026414593122</v>
       </c>
     </row>
     <row r="29">
@@ -722,27 +722,27 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00355777367792567</v>
+        <v>0.003305127854161437</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_4_value_unkown</t>
+          <t>CATEGORICAL_2_value_AB</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.003247305112574403</v>
+        <v>0.003253849561537455</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_2_value_AB</t>
+          <t>CATEGORICAL_3_value_unkown</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.003160837246218355</v>
+        <v>0.003195325038078956</v>
       </c>
     </row>
     <row r="32">
@@ -752,467 +752,467 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.003076884591781499</v>
+        <v>0.003091612781306574</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_5_value_unkown</t>
+          <t>CATEGORICAL_4_value_unkown</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.002963624490653421</v>
+        <v>0.002739752732756105</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_32</t>
+          <t>NUMERICAL_11</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.002880251058554905</v>
+        <v>0.002731183053501171</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_6_value_B</t>
+          <t>NUMERICAL_36</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.002801017365553058</v>
+        <v>0.002700761257910615</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_32_std_dev_last_30_days</t>
+          <t>CATEGORICAL_5_value_WE</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.002740704270156152</v>
+        <v>0.002699489906095506</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_5_value_WE</t>
+          <t>CATEGORICAL_6_value_B</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.002667784837106103</v>
+        <v>0.002686213290414309</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_3_value_DF</t>
+          <t>CATEGORICAL_5_value_unkown</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.002525577871219895</v>
+        <v>0.002682773637831918</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_16_std_dev_last_30_days</t>
+          <t>NUMERICAL_39_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.00181250920911086</v>
+        <v>0.0026599322297283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_29</t>
+          <t>NUMERICAL_13_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.001774422788780588</v>
+        <v>0.002656474246950637</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_8_std_dev_last_30_days</t>
+          <t>NUMERICAL_39</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.00176647617027765</v>
+        <v>0.002644523660174213</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_12_std_dev_last_30_days</t>
+          <t>NUMERICAL_13</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.001763981073554086</v>
+        <v>0.00264327543778643</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_7_std_dev_last_30_days</t>
+          <t>NUMERICAL_15_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.001747478551447661</v>
+        <v>0.002634617553638656</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_18</t>
+          <t>NUMERICAL_25_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.001745746437784251</v>
+        <v>0.002626932553252824</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_0</t>
+          <t>NUMERICAL_14</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001741557552278008</v>
+        <v>0.002626337515506827</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_4_std_dev_last_30_days</t>
+          <t>NUMERICAL_26_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.001736384813291289</v>
+        <v>0.002623459485708503</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_9</t>
+          <t>NUMERICAL_11_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.001720950835217939</v>
+        <v>0.002622224876433293</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_11</t>
+          <t>NUMERICAL_27</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.001717155128223393</v>
+        <v>0.002619981772061528</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_10_value_HNPAK</t>
+          <t>NUMERICAL_3</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.001710788090197528</v>
+        <v>0.002614863669154292</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_9_std_dev_last_30_days</t>
+          <t>NUMERICAL_18_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.001705769890324174</v>
+        <v>0.002614335206172841</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_22</t>
+          <t>NUMERICAL_16</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.001696390769094114</v>
+        <v>0.002608200264034495</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_33_std_dev_last_30_days</t>
+          <t>NUMERICAL_20_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.001693847179337643</v>
+        <v>0.00260031924257642</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_27_std_dev_last_30_days</t>
+          <t>NUMERICAL_25</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.001693038948825892</v>
+        <v>0.002600207339585995</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_28_std_dev_last_30_days</t>
+          <t>CATEGORICAL_3_value_DF</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.001687616171319641</v>
+        <v>0.00259931511234277</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_38_std_dev_last_30_days</t>
+          <t>NUMERICAL_8</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.001683456176842812</v>
+        <v>0.002597198378331516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_23_std_dev_last_30_days</t>
+          <t>NUMERICAL_5</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.001681675648508414</v>
+        <v>0.002596463700422731</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_16</t>
+          <t>NUMERICAL_7</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.001679916415160401</v>
+        <v>0.002595302223765504</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_26</t>
+          <t>NUMERICAL_6_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.001666116342273176</v>
+        <v>0.002591922839080492</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_3</t>
+          <t>NUMERICAL_37</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.001664997287710014</v>
+        <v>0.002589728152423294</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_3_std_dev_last_30_days</t>
+          <t>NUMERICAL_33</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.001664819916573042</v>
+        <v>0.002589422725182767</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_8</t>
+          <t>NUMERICAL_29_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.001662578991966337</v>
+        <v>0.002586316018705955</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_13</t>
+          <t>NUMERICAL_29</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.001660664699137424</v>
+        <v>0.002576441261201577</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_33</t>
+          <t>NUMERICAL_23_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.001659521210279762</v>
+        <v>0.002575315661485038</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_35_std_dev_last_30_days</t>
+          <t>NUMERICAL_21_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.001657244860034863</v>
+        <v>0.002574370507421113</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_26_std_dev_last_30_days</t>
+          <t>NUMERICAL_36_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.001657007220806915</v>
+        <v>0.002573320842841055</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_6</t>
+          <t>NUMERICAL_24_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.001656712827435078</v>
+        <v>0.002572757912902819</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_31_std_dev_last_30_days</t>
+          <t>NUMERICAL_0_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.001650112207598023</v>
+        <v>0.002567066176137629</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_34_std_dev_last_30_days</t>
+          <t>NUMERICAL_9</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.001649091929658944</v>
+        <v>0.002566733591862385</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_19_std_dev_last_30_days</t>
+          <t>NUMERICAL_34</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.001648824476558308</v>
+        <v>0.002560242459228284</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_21</t>
+          <t>NUMERICAL_4_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.001648795836059502</v>
+        <v>0.002557505534344285</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_15_std_dev_last_30_days</t>
+          <t>NUMERICAL_12</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.001645804716383209</v>
+        <v>0.002556793698708779</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_7</t>
+          <t>NUMERICAL_4</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.001642630834420917</v>
+        <v>0.002555218562329304</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_35</t>
+          <t>NUMERICAL_23</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.001629395750244222</v>
+        <v>0.002553451278878802</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_28</t>
+          <t>NUMERICAL_24</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.001618661159365949</v>
+        <v>0.002550646191719037</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_38</t>
+          <t>NUMERICAL_8_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.001618103006831099</v>
+        <v>0.002550274713166397</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_2</t>
+          <t>NUMERICAL_26</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.001617362288616466</v>
+        <v>0.002548048350754968</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_14</t>
+          <t>NUMERICAL_2</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.001617336777369899</v>
+        <v>0.002543350881177047</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_39_std_dev_last_30_days</t>
+          <t>NUMERICAL_17</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.001613794721137385</v>
+        <v>0.002541493869868482</v>
       </c>
     </row>
     <row r="79">
@@ -1222,177 +1222,177 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.001605664335013508</v>
+        <v>0.002539114695650914</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_14_std_dev_last_30_days</t>
+          <t>NUMERICAL_21</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.001603904206476123</v>
+        <v>0.002536812592600248</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_25_std_dev_last_30_days</t>
+          <t>NUMERICAL_7_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.001602166864350109</v>
+        <v>0.002535362074513997</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_24</t>
+          <t>NUMERICAL_37_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.001599390155529761</v>
+        <v>0.00253242595969889</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_34</t>
+          <t>NUMERICAL_0</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.001597543108064273</v>
+        <v>0.002531929874147058</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_5</t>
+          <t>NUMERICAL_31_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.001595894583200881</v>
+        <v>0.002528913900471249</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_12</t>
+          <t>NUMERICAL_28_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.00159488121684911</v>
+        <v>0.002528315910786125</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_37</t>
+          <t>NUMERICAL_16_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.001594692443441097</v>
+        <v>0.002525434238358362</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_6_std_dev_last_30_days</t>
+          <t>NUMERICAL_38</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.001588341913242866</v>
+        <v>0.002524334722062048</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_11_std_dev_last_30_days</t>
+          <t>NUMERICAL_9_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.001586970721291485</v>
+        <v>0.002521061278150731</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_37_std_dev_last_30_days</t>
+          <t>NUMERICAL_19</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.001584791698091354</v>
+        <v>0.002517750028554872</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_19</t>
+          <t>NUMERICAL_28</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.001581168707469221</v>
+        <v>0.002517382045556003</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_4</t>
+          <t>NUMERICAL_6</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.001580788439890597</v>
+        <v>0.002514047131262122</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_17_std_dev_last_30_days</t>
+          <t>NUMERICAL_35</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.001578573415251961</v>
+        <v>0.002511668312659521</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_36</t>
+          <t>NUMERICAL_17_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.001575529819429019</v>
+        <v>0.002510414996995018</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_0_std_dev_last_30_days</t>
+          <t>NUMERICAL_18</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.001572382967132405</v>
+        <v>0.002507762931743293</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_25</t>
+          <t>NUMERICAL_27_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.001563606987309685</v>
+        <v>0.002505512985860528</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_23</t>
+          <t>NUMERICAL_20</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0015633645495915</v>
+        <v>0.002505317416002598</v>
       </c>
     </row>
     <row r="97">
@@ -1402,187 +1402,187 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.00156181158117922</v>
+        <v>0.0024935398458475</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_36_std_dev_last_30_days</t>
+          <t>NUMERICAL_3_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.001559960173608531</v>
+        <v>0.002491486951898857</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_18_std_dev_last_30_days</t>
+          <t>NUMERICAL_14_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.00155889700955389</v>
+        <v>0.002482828683991293</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_20</t>
+          <t>NUMERICAL_34_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.001558741476362074</v>
+        <v>0.002480655072307119</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_5_std_dev_last_30_days</t>
+          <t>NUMERICAL_12_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.001557441287884482</v>
+        <v>0.002479926715929755</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_39</t>
+          <t>NUMERICAL_15</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.001555233195777457</v>
+        <v>0.002477374745381345</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_27</t>
+          <t>NUMERICAL_5_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.00155273474035198</v>
+        <v>0.002474470542509036</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_24_std_dev_last_30_days</t>
+          <t>NUMERICAL_33_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.001552148929120578</v>
+        <v>0.002461495636795309</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_20_std_dev_last_30_days</t>
+          <t>NUMERICAL_35_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.001536156476727312</v>
+        <v>0.002459682082714457</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_21_std_dev_last_30_days</t>
+          <t>NUMERICAL_22</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.001532163660974399</v>
+        <v>0.00245782216696737</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_13_std_dev_last_30_days</t>
+          <t>NUMERICAL_38_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.001529225753912589</v>
+        <v>0.002451323316839974</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_29_std_dev_last_30_days</t>
+          <t>NUMERICAL_19_std_dev_last_30_days</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.001522065140674453</v>
+        <v>0.002441562874152607</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_17</t>
+          <t>NUMERICAL_31</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.001521889341881304</v>
+        <v>0.002402619167958222</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_31</t>
+          <t>CATEGORICAL_10_value_NFAYV</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.001515554538066977</v>
+        <v>0.001649053017235988</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>NUMERICAL_15</t>
+          <t>HOUR_APPLICATION</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.0014903901754861</v>
+        <v>0.001647823942071661</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_10_value_NFAYV</t>
+          <t>CATEGORICAL_10_value_HNPAK</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.001225997883592056</v>
+        <v>0.001633553195929654</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>HOUR_APPLICATION</t>
+          <t>CATEGORICAL_0_value_JJUFY</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.0009997699703409373</v>
+        <v>0.0001540575713483288</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>DOW_APPLICATION_value_1</t>
+          <t>DOW_APPLICATION_value_3</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.0001090364923601262</v>
+        <v>0.0001490469616297428</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_0_value_UQPEF</t>
+          <t>CATEGORICAL_0_value_FPTCW</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>9.675996201149229e-05</v>
+        <v>0.0001468468389976741</v>
       </c>
     </row>
     <row r="116">
@@ -1592,387 +1592,387 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>9.132074631977575e-05</v>
+        <v>0.0001466673555366803</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>MONTH_APPLICATION_value_11</t>
+          <t>CATEGORICAL_0_value_UQPEF</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>8.921839440570181e-05</v>
+        <v>0.0001420816744306923</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_0_value_SUPSY</t>
+          <t>MONTH_APPLICATION_value_12</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>8.878085230945588e-05</v>
+        <v>0.0001349215531150067</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>DOW_APPLICATION_value_2</t>
+          <t>DOW_APPLICATION_value_6</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>8.792640248997771e-05</v>
+        <v>0.0001315313459932653</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>DOW_APPLICATION_value_0</t>
+          <t>DOW_APPLICATION_value_4</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>8.271932055496253e-05</v>
+        <v>0.0001162106033889927</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_0_value_JJUFY</t>
+          <t>DOW_APPLICATION_value_2</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>8.207602528267574e-05</v>
+        <v>0.0001120503207032028</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>DOW_APPLICATION_value_6</t>
+          <t>MONTH_APPLICATION_value_1</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>8.076608353912098e-05</v>
+        <v>0.0001106710652371708</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>DOW_APPLICATION_value_5</t>
+          <t>MONTH_APPLICATION_value_8</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>7.74721443573384e-05</v>
+        <v>0.0001097292569245063</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>MONTH_APPLICATION_value_3</t>
+          <t>CATEGORICAL_0_value_SUPSY</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>7.242158232049271e-05</v>
+        <v>0.0001068256909515886</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>CATEGORICAL_0_value_FPTCW</t>
+          <t>DOW_APPLICATION_value_1</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>7.229427649460702e-05</v>
+        <v>0.0001015602200920359</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>DOW_APPLICATION_value_3</t>
+          <t>MONTH_APPLICATION_value_3</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6.998607516111864e-05</v>
+        <v>9.842720759104052e-05</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>MONTH_APPLICATION_value_1</t>
+          <t>MONTH_APPLICATION_value_10</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>6.965305405869923e-05</v>
+        <v>9.720519378139443e-05</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>DOW_APPLICATION_value_4</t>
+          <t>DOW_APPLICATION_value_0</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>6.93845647872213e-05</v>
+        <v>9.329708064999813e-05</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>MONTH_APPLICATION_value_9</t>
+          <t>DOW_APPLICATION_value_5</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>5.643540000665784e-05</v>
+        <v>8.604502688677058e-05</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>MONTH_APPLICATION_value_10</t>
+          <t>MONTH_APPLICATION_value_9</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>5.527557680930127e-05</v>
+        <v>7.943658014752361e-05</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_19</t>
+          <t>MONTH_APPLICATION_value_11</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>5.196340687478902e-05</v>
+        <v>7.60900901652692e-05</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>MONTH_APPLICATION_value_12</t>
+          <t>MONTH_APPLICATION_value_2</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5.160740315864578e-05</v>
+        <v>7.602158899165376e-05</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>MONTH_APPLICATION_value_2</t>
+          <t>DAY_APPLICATION_value_23</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>5.114727921406577e-05</v>
+        <v>7.41702491140376e-05</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>MONTH_APPLICATION_value_8</t>
+          <t>DAY_APPLICATION_value_27</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4.964503201580985e-05</v>
+        <v>7.303044849715655e-05</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_24</t>
+          <t>DAY_APPLICATION_value_30</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4.391304761804827e-05</v>
+        <v>6.94474291432385e-05</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_30</t>
+          <t>DAY_APPLICATION_value_22</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4.266715952913854e-05</v>
+        <v>6.619645840379976e-05</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_28</t>
+          <t>DAY_APPLICATION_value_24</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>4.11418783642406e-05</v>
+        <v>5.518975397595773e-05</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_7</t>
+          <t>DAY_APPLICATION_value_26</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>4.018995936931889e-05</v>
+        <v>5.24067523100237e-05</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_5</t>
+          <t>DAY_APPLICATION_value_20</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>3.990185518150652e-05</v>
+        <v>4.866265770979545e-05</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_25</t>
+          <t>DAY_APPLICATION_value_21</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>3.852649509727021e-05</v>
+        <v>4.67732971346188e-05</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_22</t>
+          <t>DAY_APPLICATION_value_19</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>3.682665138935579e-05</v>
+        <v>4.512657567025815e-05</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_23</t>
+          <t>DAY_APPLICATION_value_29</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>3.638016059159794e-05</v>
+        <v>4.429820674355561e-05</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_21</t>
+          <t>DAY_APPLICATION_value_28</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3.614841032330727e-05</v>
+        <v>4.015281986995892e-05</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_6</t>
+          <t>DAY_APPLICATION_value_25</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3.545415471987258e-05</v>
+        <v>3.79449526305414e-05</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_29</t>
+          <t>DAY_APPLICATION_value_5</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>3.268854208860513e-05</v>
+        <v>3.412437953381812e-05</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_1</t>
+          <t>DAY_APPLICATION_value_3</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>3.247695595220871e-05</v>
+        <v>2.530456850732047e-05</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_26</t>
+          <t>DAY_APPLICATION_value_7</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>3.136861165272904e-05</v>
+        <v>2.45897003451117e-05</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_27</t>
+          <t>DAY_APPLICATION_value_13</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2.962582257380035e-05</v>
+        <v>2.431512250082251e-05</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_20</t>
+          <t>DAY_APPLICATION_value_15</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2.843949105502264e-05</v>
+        <v>2.418516524746016e-05</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_15</t>
+          <t>DAY_APPLICATION_value_18</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2.569151569393191e-05</v>
+        <v>2.268419786937232e-05</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>MONTH_APPLICATION_value_7</t>
+          <t>DAY_APPLICATION_value_10</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2.260659928860678e-05</v>
+        <v>2.169981406958087e-05</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_9</t>
+          <t>DAY_APPLICATION_value_2</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2.157009595958001e-05</v>
+        <v>2.102432678890182e-05</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_14</t>
+          <t>DAY_APPLICATION_value_8</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2.044483044927231e-05</v>
+        <v>2.091302768225048e-05</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_8</t>
+          <t>DAY_APPLICATION_value_17</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1.786410813213432e-05</v>
+        <v>2.048555900181877e-05</v>
       </c>
     </row>
     <row r="155">
@@ -1982,27 +1982,27 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1.589513477055996e-05</v>
+        <v>1.89572884305357e-05</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_16</t>
+          <t>MONTH_APPLICATION_value_7</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1.585416272195658e-05</v>
+        <v>1.887353154107476e-05</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_2</t>
+          <t>DAY_APPLICATION_value_6</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1.404546278961613e-05</v>
+        <v>1.79662454486324e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2012,86 +2012,76 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1.267995756192439e-05</v>
+        <v>1.40701636083635e-05</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_10</t>
+          <t>DAY_APPLICATION_value_1</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1.144595721927035e-05</v>
+        <v>1.255435103730836e-05</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_13</t>
+          <t>DAY_APPLICATION_value_16</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1.133783037659874e-05</v>
+        <v>1.214481739243809e-05</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_3</t>
+          <t>DAY_APPLICATION_value_4</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>8.217676123822888e-06</v>
+        <v>1.197826713779537e-05</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_18</t>
+          <t>DAY_APPLICATION_value_9</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>7.990094647502448e-06</v>
+        <v>1.18827601533955e-05</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_17</t>
+          <t>DAY_APPLICATION_value_14</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>7.887684153193979e-06</v>
+        <v>1.175551910464027e-05</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_4</t>
+          <t>DAY_APPLICATION_value_31</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>7.256664758228779e-06</v>
+        <v>9.600767896413863e-06</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>DAY_APPLICATION_value_31</t>
+          <t>MONTH_APPLICATION_value_5</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>4.617200510154075e-06</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>MONTH_APPLICATION_value_5</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
         <v>0</v>
       </c>
     </row>
